--- a/CelticProject_Framework-main/src/test/resources/DataProvider/FetchData.xlsx
+++ b/CelticProject_Framework-main/src/test/resources/DataProvider/FetchData.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Selenium\CelticProject_Framework-main\src\test\resources\DataProvider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\CelticProject_Framework-main\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2859D0-89F4-4243-A1A3-F8606A95178D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B61B5AF-6A34-43D5-998B-99A8083D1FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Account" r:id="rId5" sheetId="2"/>
-    <sheet name="Fleet" r:id="rId6" sheetId="3"/>
-    <sheet name="Distance" r:id="rId7" sheetId="4"/>
-    <sheet name="Distance_Juris" r:id="rId8" sheetId="5"/>
-    <sheet name="WeightGroup" r:id="rId9" sheetId="6"/>
+    <sheet name="Account" sheetId="2" r:id="rId2"/>
+    <sheet name="Fleet" sheetId="3" r:id="rId3"/>
+    <sheet name="Distance" sheetId="4" r:id="rId4"/>
+    <sheet name="Distance_Juris" sheetId="5" r:id="rId5"/>
+    <sheet name="WeightGroup" sheetId="6" r:id="rId6"/>
     <sheet name="VehicleTab" r:id="rId10" sheetId="7"/>
     <sheet name="Billing" r:id="rId11" sheetId="8"/>
     <sheet name="PaymentTab" r:id="rId12" sheetId="9"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="313">
   <si>
     <t>MCE Customer ID</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Email Notification</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>Fax Notification</t>
@@ -234,7 +237,7 @@
     <t>Power of Attorney Effective Date</t>
   </si>
   <si>
-    <t>09/20/2022</t>
+    <t>09/22/2022</t>
   </si>
   <si>
     <t>Power of Attorney Expiration Date</t>
@@ -315,9 +318,6 @@
     <t>Use IFTA Distance</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>Mobile Notification</t>
   </si>
   <si>
@@ -747,7 +747,7 @@
     <t>No. of Veh in Supp</t>
   </si>
   <si>
-    <t>2</t>
+    <t>9</t>
   </si>
   <si>
     <t>Supplement Status</t>
@@ -801,25 +801,28 @@
     <t>Use One-Time Mailing Address</t>
   </si>
   <si>
+    <t>Electronic Delivery Type</t>
+  </si>
+  <si>
+    <t>E - EMAIL</t>
+  </si>
+  <si>
+    <t>Invoice Report Type</t>
+  </si>
+  <si>
+    <t>Summary Invoice</t>
+  </si>
+  <si>
     <t>TVR No. of Days</t>
   </si>
   <si>
-    <t>Electronic Delivery Type</t>
-  </si>
-  <si>
-    <t>E - EMAIL</t>
-  </si>
-  <si>
-    <t>Invoice Report Type</t>
-  </si>
-  <si>
-    <t>Summary Invoice</t>
+    <t>45</t>
   </si>
   <si>
     <t>Invoice No.</t>
   </si>
   <si>
-    <t>3267213</t>
+    <t>3267256</t>
   </si>
   <si>
     <t>*Payment Receipt Date</t>
@@ -876,10 +879,7 @@
     <t>AFFIDAVIT DOCUMENT</t>
   </si>
   <si>
-    <t>TRANSFERRABLE VEHICLE</t>
-  </si>
-  <si>
-    <t>01AB6C</t>
+    <t>JF898KR3F</t>
   </si>
   <si>
     <t>2009</t>
@@ -888,7 +888,7 @@
     <t>ACR</t>
   </si>
   <si>
-    <t>4FGB120269C112391</t>
+    <t>GSF76DD67FSGS2294</t>
   </si>
   <si>
     <t>C - COLLECTED
@@ -897,15 +897,54 @@
 S - SYSTEM COLLECTED</t>
   </si>
   <si>
+    <t>JF897KR9F</t>
+  </si>
+  <si>
+    <t>0MBXY22YXBM014487</t>
+  </si>
+  <si>
+    <t>JF897KR6F</t>
+  </si>
+  <si>
+    <t>6D75X99X57D665645</t>
+  </si>
+  <si>
+    <t>JF896KR9H</t>
+  </si>
+  <si>
+    <t>GSG0RDDR0GSGX4636</t>
+  </si>
+  <si>
+    <t>JF896KR8H</t>
+  </si>
+  <si>
+    <t>GSG1RDDR1GSGY8450</t>
+  </si>
+  <si>
+    <t>JF896KR6H</t>
+  </si>
+  <si>
+    <t>HDG2GCCG2GDHP6821</t>
+  </si>
+  <si>
+    <t>JF853KR7M</t>
+  </si>
+  <si>
+    <t>5NC4GTTG4CN535404</t>
+  </si>
+  <si>
+    <t>01AB6C</t>
+  </si>
+  <si>
+    <t>4FGB120269C112391</t>
+  </si>
+  <si>
     <t>01AB4C</t>
   </si>
   <si>
     <t>2022</t>
   </si>
   <si>
-    <t>ACRO</t>
-  </si>
-  <si>
     <t>1FTXW43R39EA68016</t>
   </si>
   <si>
@@ -957,7 +996,7 @@
     <t>Supplement Invoice No.</t>
   </si>
   <si>
-    <t>3267224</t>
+    <t>3267258</t>
   </si>
   <si>
     <t>Installment</t>
@@ -978,37 +1017,19 @@
     <t>MO Schedule I</t>
   </si>
   <si>
-    <t>140.01</t>
+    <t>630.03</t>
   </si>
   <si>
     <t>MO Schedule II</t>
   </si>
   <si>
-    <t>145.45</t>
+    <t>658.49</t>
   </si>
   <si>
     <t>Net Amount</t>
   </si>
   <si>
-    <t>285.46</t>
-  </si>
-  <si>
-    <t>09/21/2022</t>
-  </si>
-  <si>
-    <t>3267234</t>
-  </si>
-  <si>
-    <t>630.03</t>
-  </si>
-  <si>
-    <t>658.49</t>
-  </si>
-  <si>
     <t>1288.52</t>
-  </si>
-  <si>
-    <t>3267236</t>
   </si>
 </sst>
 </file>
@@ -1045,8 +1066,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1329,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424232C0-8826-4BF2-B36C-E540130D384C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -1349,13 +1373,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>222</v>
@@ -1364,13 +1388,13 @@
         <v>224</v>
       </c>
       <c r="F1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
@@ -1378,10 +1402,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>223</v>
@@ -1404,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:CS2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1412,33 +1436,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I1" t="s">
-        <v>261</v>
-      </c>
-      <c r="J1" t="s">
         <v>262</v>
       </c>
     </row>
@@ -1480,31 +1501,259 @@
         <v>268</v>
       </c>
       <c r="M2" t="s">
+        <v>264</v>
+      </c>
+      <c r="N2" t="s">
+        <v>265</v>
+      </c>
+      <c r="O2" t="s">
         <v>269</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R2" t="s">
+        <v>267</v>
+      </c>
+      <c r="S2" t="s">
+        <v>267</v>
+      </c>
+      <c r="T2" t="s">
+        <v>267</v>
+      </c>
+      <c r="U2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" t="s">
         <v>270</v>
       </c>
-      <c r="O2" t="s">
+      <c r="X2" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z2" t="s">
         <v>271</v>
       </c>
-      <c r="P2" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>267</v>
-      </c>
-      <c r="R2" t="s">
-        <v>267</v>
-      </c>
-      <c r="S2" t="s">
-        <v>267</v>
-      </c>
-      <c r="T2" t="s">
-        <v>267</v>
-      </c>
-      <c r="U2" t="s">
-        <v>17</v>
+      <c r="AA2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>276</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>264</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>265</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>277</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>278</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>264</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>265</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>280</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>265</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>281</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>267</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>282</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>283</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>265</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>284</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>267</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>267</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>267</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -1522,129 +1771,129 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="E1" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="H1" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="I1" t="s">
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="K1" t="s">
         <v>220</v>
       </c>
       <c r="L1" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M1" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="N1" t="s">
         <v>222</v>
       </c>
       <c r="O1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P1" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="Q1" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="R1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="S1" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="H2" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K2" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="L2" t="s">
-        <v>300</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N2" t="s">
         <v>223</v>
       </c>
       <c r="O2" t="s">
-        <v>300</v>
+        <v>49</v>
       </c>
       <c r="P2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="Q2" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="R2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="S2" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="T2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="U2" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="V2" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -1653,14 +1902,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1737,10 +1986,10 @@
         <v>34</v>
       </c>
       <c r="Z1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1750,7 +1999,6 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2"/>
       <c r="E2" t="s">
         <v>8</v>
       </c>
@@ -1760,7 +2008,6 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2"/>
       <c r="I2" t="s">
         <v>15</v>
       </c>
@@ -1776,7 +2023,6 @@
       <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="N2"/>
       <c r="O2" t="s">
         <v>15</v>
       </c>
@@ -1807,34 +2053,38 @@
       <c r="X2" t="s">
         <v>33</v>
       </c>
-      <c r="Y2"/>
-      <c r="Z2"/>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BI2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -1855,7 +2105,7 @@
         <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
@@ -1876,31 +2126,31 @@
         <v>18</v>
       </c>
       <c r="R1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S1" t="s">
         <v>22</v>
       </c>
       <c r="T1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AA1" t="s">
         <v>29</v>
@@ -1945,13 +2195,13 @@
         <v>22</v>
       </c>
       <c r="AO1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AP1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AQ1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AR1" t="s">
         <v>31</v>
@@ -1966,31 +2216,31 @@
         <v>23</v>
       </c>
       <c r="AV1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AX1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AY1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AZ1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BA1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BB1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BC1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BD1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BE1" t="s">
         <v>76</v>
@@ -2005,10 +2255,10 @@
         <v>80</v>
       </c>
       <c r="BI1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2016,10 +2266,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -2028,7 +2278,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2039,7 +2289,6 @@
       <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2"/>
       <c r="L2" t="s">
         <v>20</v>
       </c>
@@ -2047,7 +2296,7 @@
         <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
         <v>15</v>
@@ -2058,46 +2307,47 @@
       <c r="Q2" t="s">
         <v>19</v>
       </c>
-      <c r="R2"/>
       <c r="S2" t="s">
         <v>17</v>
       </c>
       <c r="T2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2"/>
+        <v>46</v>
+      </c>
+      <c r="W2" t="s">
+        <v>35</v>
+      </c>
       <c r="X2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y2" t="s">
         <v>17</v>
       </c>
       <c r="Z2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB2" t="s">
         <v>17</v>
       </c>
       <c r="AC2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG2" t="s">
         <v>19</v>
@@ -2127,7 +2377,7 @@
         <v>28</v>
       </c>
       <c r="AP2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ2" t="s">
         <v>30</v>
@@ -2144,28 +2394,24 @@
       <c r="AU2" t="s">
         <v>24</v>
       </c>
-      <c r="AV2"/>
       <c r="AW2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AX2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AY2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AZ2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BA2"/>
+        <v>70</v>
+      </c>
       <c r="BB2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BC2"/>
+        <v>73</v>
+      </c>
       <c r="BD2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE2"/>
+        <v>35</v>
+      </c>
       <c r="BF2" t="s">
         <v>78</v>
       </c>
@@ -2180,19 +2426,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -2227,7 +2473,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -2237,8 +2483,9 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2"/>
-      <c r="E2"/>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
@@ -2251,25 +2498,21 @@
       <c r="I2" t="s">
         <v>91</v>
       </c>
-      <c r="J2"/>
-      <c r="K2" t="s">
-        <v>75</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:FU2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:177" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -2289,7 +2532,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:177" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -2823,19 +3066,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2876,7 +3121,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2976,16 +3221,16 @@
         <v>236</v>
       </c>
       <c r="P1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q1" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" t="s">
-        <v>238</v>
-      </c>
       <c r="R1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2">
@@ -3005,13 +3250,13 @@
         <v>225</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -3023,26 +3268,24 @@
         <v>17</v>
       </c>
       <c r="L2"/>
-      <c r="M2" t="s">
-        <v>75</v>
-      </c>
+      <c r="M2"/>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>17</v>
+        <v>242</v>
       </c>
       <c r="Q2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3069,42 +3312,40 @@
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F1" t="s">
         <v>232</v>
       </c>
       <c r="G1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2">
       <c r="A2"/>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" t="s">
-        <v>75</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CelticProject_Framework-main/src/test/resources/DataProvider/FetchData.xlsx
+++ b/CelticProject_Framework-main/src/test/resources/DataProvider/FetchData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\CelticProject_Framework-main\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8D6418-4711-4792-A984-B6BA815C4AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C7102D-CB3F-403A-B35D-235BC3BFF61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,10 @@
     <sheet name="Distance" r:id="rId7" sheetId="4"/>
     <sheet name="Distance_Juris" r:id="rId8" sheetId="5"/>
     <sheet name="WeightGroup" r:id="rId9" sheetId="6"/>
-    <sheet name="Billing" r:id="rId10" sheetId="7"/>
-    <sheet name="BillingGrid" r:id="rId11" sheetId="8"/>
+    <sheet name="VehicleTab" r:id="rId10" sheetId="7"/>
+    <sheet name="Billing" r:id="rId11" sheetId="8"/>
+    <sheet name="BillingGrid" r:id="rId12" sheetId="9"/>
+    <sheet name="PaymentTab" r:id="rId13" sheetId="10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,12 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="538">
   <si>
     <t>MCE Customer ID</t>
   </si>
   <si>
-    <t>3258</t>
+    <t>12264</t>
   </si>
   <si>
     <t>Registrant Type</t>
@@ -133,7 +135,7 @@
     <t>TPID</t>
   </si>
   <si>
-    <t>431401709</t>
+    <t>431710461</t>
   </si>
   <si>
     <t>Contact Name</t>
@@ -205,7 +207,7 @@
     <t>Service ProviderPower of Attorney Effective Date</t>
   </si>
   <si>
-    <t>10/20/2022</t>
+    <t>10/26/2022</t>
   </si>
   <si>
     <t>Service ProviderPower of Attorney Expiration Date</t>
@@ -259,7 +261,7 @@
     <t>*Contact Name</t>
   </si>
   <si>
-    <t>ACCOUNT_NBR_5757__FL_CONTACT_NAME</t>
+    <t>ACCOUNT_NBR_1969__FL_CONTACT_NAME</t>
   </si>
   <si>
     <t>*Email</t>
@@ -280,7 +282,7 @@
     <t>*Fleet Type</t>
   </si>
   <si>
-    <t>FOR - FOR HIRE (FH)</t>
+    <t>PVT - PRIVATE CARRIER (PC)</t>
   </si>
   <si>
     <t>*Commodity Class</t>
@@ -313,1090 +315,1339 @@
     <t>Wyoming Indicator</t>
   </si>
   <si>
+    <t>Use IFTA Distance</t>
+  </si>
+  <si>
+    <t>Mobile Notification</t>
+  </si>
+  <si>
+    <t>IRP Requirements Form</t>
+  </si>
+  <si>
+    <t>N - NOT REQUIRED</t>
+  </si>
+  <si>
+    <t>Statement of Understanding</t>
+  </si>
+  <si>
+    <t>Installment Agreement</t>
+  </si>
+  <si>
+    <t>Power of Attorney</t>
+  </si>
+  <si>
+    <t>HVUT - Form 2290</t>
+  </si>
+  <si>
+    <t>O - OUTSTANDING</t>
+  </si>
+  <si>
+    <t>Property Tax</t>
+  </si>
+  <si>
+    <t>Reporting Period From</t>
+  </si>
+  <si>
+    <t>07/01/2020</t>
+  </si>
+  <si>
+    <t>Reporting Period To</t>
+  </si>
+  <si>
+    <t>06/30/2021</t>
+  </si>
+  <si>
+    <t>Avg. Per Vehicle Distance Chart</t>
+  </si>
+  <si>
+    <t>Override Contiguous Jur.</t>
+  </si>
+  <si>
+    <t>Estimated Distance</t>
+  </si>
+  <si>
+    <t>Actual Distance</t>
+  </si>
+  <si>
+    <t>Total Fleet Distance</t>
+  </si>
+  <si>
+    <t>Do you have actual distance for the reporting period?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Distance Type</t>
+  </si>
+  <si>
+    <t>A - Actual</t>
+  </si>
+  <si>
+    <t>We certify that the actual distance submitted is accurate</t>
+  </si>
+  <si>
+    <t>JURISDICTION0</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>PERCENT0</t>
+  </si>
+  <si>
+    <t>00.00000</t>
+  </si>
+  <si>
+    <t>JURISDICTION1</t>
+  </si>
+  <si>
+    <t>AL - ALABAMA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)1</t>
+  </si>
+  <si>
+    <t>PERCENT1</t>
+  </si>
+  <si>
+    <t>JURISDICTION2</t>
+  </si>
+  <si>
+    <t>AR - ARKANSAS</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)2</t>
+  </si>
+  <si>
+    <t>PERCENT2</t>
+  </si>
+  <si>
+    <t>JURISDICTION3</t>
+  </si>
+  <si>
+    <t>AZ - ARIZONA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)3</t>
+  </si>
+  <si>
+    <t>PERCENT3</t>
+  </si>
+  <si>
+    <t>JURISDICTION4</t>
+  </si>
+  <si>
+    <t>CA - CALIFORNIA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)4</t>
+  </si>
+  <si>
+    <t>PERCENT4</t>
+  </si>
+  <si>
+    <t>JURISDICTION5</t>
+  </si>
+  <si>
+    <t>CO - COLORADO</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)5</t>
+  </si>
+  <si>
+    <t>PERCENT5</t>
+  </si>
+  <si>
+    <t>JURISDICTION6</t>
+  </si>
+  <si>
+    <t>CT - CONNECTICUT</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)6</t>
+  </si>
+  <si>
+    <t>PERCENT6</t>
+  </si>
+  <si>
+    <t>JURISDICTION7</t>
+  </si>
+  <si>
+    <t>DC - DISTRICT OF COLUMBIA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)7</t>
+  </si>
+  <si>
+    <t>PERCENT7</t>
+  </si>
+  <si>
+    <t>JURISDICTION8</t>
+  </si>
+  <si>
+    <t>DE - DELAWARE</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)8</t>
+  </si>
+  <si>
+    <t>PERCENT8</t>
+  </si>
+  <si>
+    <t>JURISDICTION9</t>
+  </si>
+  <si>
+    <t>FL - FLORIDA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)9</t>
+  </si>
+  <si>
+    <t>PERCENT9</t>
+  </si>
+  <si>
+    <t>JURISDICTION10</t>
+  </si>
+  <si>
+    <t>GA - GEORGIA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)10</t>
+  </si>
+  <si>
+    <t>PERCENT10</t>
+  </si>
+  <si>
+    <t>JURISDICTION11</t>
+  </si>
+  <si>
+    <t>IA - IOWA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)11</t>
+  </si>
+  <si>
+    <t>PERCENT11</t>
+  </si>
+  <si>
+    <t>JURISDICTION12</t>
+  </si>
+  <si>
+    <t>ID - IDAHO</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)12</t>
+  </si>
+  <si>
+    <t>PERCENT12</t>
+  </si>
+  <si>
+    <t>JURISDICTION13</t>
+  </si>
+  <si>
+    <t>IL - ILLINOIS</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)13</t>
+  </si>
+  <si>
+    <t>PERCENT13</t>
+  </si>
+  <si>
+    <t>JURISDICTION14</t>
+  </si>
+  <si>
+    <t>IN - INDIANA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)14</t>
+  </si>
+  <si>
+    <t>PERCENT14</t>
+  </si>
+  <si>
+    <t>JURISDICTION15</t>
+  </si>
+  <si>
+    <t>KS - KANSAS</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)15</t>
+  </si>
+  <si>
+    <t>PERCENT15</t>
+  </si>
+  <si>
+    <t>JURISDICTION16</t>
+  </si>
+  <si>
+    <t>KY - KENTUCKY</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)16</t>
+  </si>
+  <si>
+    <t>PERCENT16</t>
+  </si>
+  <si>
+    <t>JURISDICTION17</t>
+  </si>
+  <si>
+    <t>LA - LOUISIANA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)17</t>
+  </si>
+  <si>
+    <t>PERCENT17</t>
+  </si>
+  <si>
+    <t>JURISDICTION18</t>
+  </si>
+  <si>
+    <t>MA - MASSACHUSETTS</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)18</t>
+  </si>
+  <si>
+    <t>PERCENT18</t>
+  </si>
+  <si>
+    <t>JURISDICTION19</t>
+  </si>
+  <si>
+    <t>MD - MARYLAND</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)19</t>
+  </si>
+  <si>
+    <t>PERCENT19</t>
+  </si>
+  <si>
+    <t>JURISDICTION20</t>
+  </si>
+  <si>
+    <t>ME - MAINE</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)20</t>
+  </si>
+  <si>
+    <t>PERCENT20</t>
+  </si>
+  <si>
+    <t>JURISDICTION21</t>
+  </si>
+  <si>
+    <t>MI - MICHIGAN</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)21</t>
+  </si>
+  <si>
+    <t>PERCENT21</t>
+  </si>
+  <si>
+    <t>JURISDICTION22</t>
+  </si>
+  <si>
+    <t>MN - MINNESOTA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)22</t>
+  </si>
+  <si>
+    <t>PERCENT22</t>
+  </si>
+  <si>
+    <t>JURISDICTION23</t>
+  </si>
+  <si>
+    <t>MS - MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)23</t>
+  </si>
+  <si>
+    <t>PERCENT23</t>
+  </si>
+  <si>
+    <t>JURISDICTION24</t>
+  </si>
+  <si>
+    <t>MT - MONTANA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)24</t>
+  </si>
+  <si>
+    <t>PERCENT24</t>
+  </si>
+  <si>
+    <t>JURISDICTION25</t>
+  </si>
+  <si>
+    <t>NC - NORTH CAROLINA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)25</t>
+  </si>
+  <si>
+    <t>PERCENT25</t>
+  </si>
+  <si>
+    <t>JURISDICTION26</t>
+  </si>
+  <si>
+    <t>ND - NORTH DAKOTA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)26</t>
+  </si>
+  <si>
+    <t>PERCENT26</t>
+  </si>
+  <si>
+    <t>JURISDICTION27</t>
+  </si>
+  <si>
+    <t>NE - NEBRASKA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)27</t>
+  </si>
+  <si>
+    <t>PERCENT27</t>
+  </si>
+  <si>
+    <t>JURISDICTION28</t>
+  </si>
+  <si>
+    <t>NH - NEW HAMPSHIRE</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)28</t>
+  </si>
+  <si>
+    <t>PERCENT28</t>
+  </si>
+  <si>
+    <t>JURISDICTION29</t>
+  </si>
+  <si>
+    <t>NJ - NEW JERSEY</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)29</t>
+  </si>
+  <si>
+    <t>PERCENT29</t>
+  </si>
+  <si>
+    <t>JURISDICTION30</t>
+  </si>
+  <si>
+    <t>NM - NEW MEXICO</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)30</t>
+  </si>
+  <si>
+    <t>PERCENT30</t>
+  </si>
+  <si>
+    <t>JURISDICTION31</t>
+  </si>
+  <si>
+    <t>NV - NEVADA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)31</t>
+  </si>
+  <si>
+    <t>PERCENT31</t>
+  </si>
+  <si>
+    <t>JURISDICTION32</t>
+  </si>
+  <si>
+    <t>NY - NEW YORK</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)32</t>
+  </si>
+  <si>
+    <t>PERCENT32</t>
+  </si>
+  <si>
+    <t>JURISDICTION33</t>
+  </si>
+  <si>
+    <t>OH - OHIO</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)33</t>
+  </si>
+  <si>
+    <t>PERCENT33</t>
+  </si>
+  <si>
+    <t>JURISDICTION34</t>
+  </si>
+  <si>
+    <t>OK - OKLAHOMA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)34</t>
+  </si>
+  <si>
+    <t>PERCENT34</t>
+  </si>
+  <si>
+    <t>JURISDICTION35</t>
+  </si>
+  <si>
+    <t>OR - OREGON</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)35</t>
+  </si>
+  <si>
+    <t>PERCENT35</t>
+  </si>
+  <si>
+    <t>JURISDICTION36</t>
+  </si>
+  <si>
+    <t>PA - PENNSYLVANIA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)36</t>
+  </si>
+  <si>
+    <t>PERCENT36</t>
+  </si>
+  <si>
+    <t>JURISDICTION37</t>
+  </si>
+  <si>
+    <t>RI - RHODE ISLAND</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)37</t>
+  </si>
+  <si>
+    <t>PERCENT37</t>
+  </si>
+  <si>
+    <t>JURISDICTION38</t>
+  </si>
+  <si>
+    <t>SC - SOUTH CAROLINA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)38</t>
+  </si>
+  <si>
+    <t>PERCENT38</t>
+  </si>
+  <si>
+    <t>JURISDICTION39</t>
+  </si>
+  <si>
+    <t>SD - SOUTH DAKOTA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)39</t>
+  </si>
+  <si>
+    <t>PERCENT39</t>
+  </si>
+  <si>
+    <t>JURISDICTION40</t>
+  </si>
+  <si>
+    <t>TN - TENNESSEE</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)40</t>
+  </si>
+  <si>
+    <t>PERCENT40</t>
+  </si>
+  <si>
+    <t>JURISDICTION41</t>
+  </si>
+  <si>
+    <t>TX - TEXAS</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)41</t>
+  </si>
+  <si>
+    <t>PERCENT41</t>
+  </si>
+  <si>
+    <t>JURISDICTION42</t>
+  </si>
+  <si>
+    <t>UT - UTAH</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)42</t>
+  </si>
+  <si>
+    <t>PERCENT42</t>
+  </si>
+  <si>
+    <t>JURISDICTION43</t>
+  </si>
+  <si>
+    <t>VA - VIRGINIA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)43</t>
+  </si>
+  <si>
+    <t>PERCENT43</t>
+  </si>
+  <si>
+    <t>JURISDICTION44</t>
+  </si>
+  <si>
+    <t>VT - VERMONT</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)44</t>
+  </si>
+  <si>
+    <t>PERCENT44</t>
+  </si>
+  <si>
+    <t>JURISDICTION45</t>
+  </si>
+  <si>
+    <t>WA - WASHINGTON</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)45</t>
+  </si>
+  <si>
+    <t>PERCENT45</t>
+  </si>
+  <si>
+    <t>JURISDICTION46</t>
+  </si>
+  <si>
+    <t>WI - WISCONSIN</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)46</t>
+  </si>
+  <si>
+    <t>PERCENT46</t>
+  </si>
+  <si>
+    <t>JURISDICTION47</t>
+  </si>
+  <si>
+    <t>WV - WEST VIRGINIA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)47</t>
+  </si>
+  <si>
+    <t>PERCENT47</t>
+  </si>
+  <si>
+    <t>JURISDICTION48</t>
+  </si>
+  <si>
+    <t>WY - WYOMING</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)48</t>
+  </si>
+  <si>
+    <t>PERCENT48</t>
+  </si>
+  <si>
+    <t>JURISDICTION49</t>
+  </si>
+  <si>
+    <t>AB - ALBERTA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)49</t>
+  </si>
+  <si>
+    <t>PERCENT49</t>
+  </si>
+  <si>
+    <t>JURISDICTION50</t>
+  </si>
+  <si>
+    <t>BC - BRITISH COLUMBIA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)50</t>
+  </si>
+  <si>
+    <t>PERCENT50</t>
+  </si>
+  <si>
+    <t>JURISDICTION51</t>
+  </si>
+  <si>
+    <t>MB - MANITOBA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)51</t>
+  </si>
+  <si>
+    <t>PERCENT51</t>
+  </si>
+  <si>
+    <t>JURISDICTION52</t>
+  </si>
+  <si>
+    <t>NB - NEW BRUNSWICK</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)52</t>
+  </si>
+  <si>
+    <t>PERCENT52</t>
+  </si>
+  <si>
+    <t>JURISDICTION53</t>
+  </si>
+  <si>
+    <t>NL - NEWFOUNDLAND AND LABRADOR</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)53</t>
+  </si>
+  <si>
+    <t>PERCENT53</t>
+  </si>
+  <si>
+    <t>JURISDICTION54</t>
+  </si>
+  <si>
+    <t>NS - NOVA SCOTIA</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)54</t>
+  </si>
+  <si>
+    <t>PERCENT54</t>
+  </si>
+  <si>
+    <t>JURISDICTION55</t>
+  </si>
+  <si>
+    <t>ON - ONTARIO</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)55</t>
+  </si>
+  <si>
+    <t>PERCENT55</t>
+  </si>
+  <si>
+    <t>JURISDICTION56</t>
+  </si>
+  <si>
+    <t>PE - PRINCE EDWARD ISLAND</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)56</t>
+  </si>
+  <si>
+    <t>PERCENT56</t>
+  </si>
+  <si>
+    <t>JURISDICTION57</t>
+  </si>
+  <si>
+    <t>QC - QUEBEC</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)57</t>
+  </si>
+  <si>
+    <t>PERCENT57</t>
+  </si>
+  <si>
+    <t>JURISDICTION58</t>
+  </si>
+  <si>
+    <t>SK - SASKATCHEWAN</t>
+  </si>
+  <si>
+    <t>DISTANCE (MILES)58</t>
+  </si>
+  <si>
+    <t>PERCENT58</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP NO.0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP TYPE0</t>
+  </si>
+  <si>
+    <t>P - POWER UNIT</t>
+  </si>
+  <si>
+    <t>BASE JURISDICTION WEIGHT0</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>MAX GROSS WEIGHT0</t>
+  </si>
+  <si>
+    <t>JUR WITH DIFFERENT WEIGHTS0</t>
+  </si>
+  <si>
+    <t>FL, IL, KY, LA, MS, OK, TN</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP NO.1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP TYPE1</t>
+  </si>
+  <si>
+    <t>BASE JURISDICTION WEIGHT1</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>MAX GROSS WEIGHT1</t>
+  </si>
+  <si>
+    <t>JUR WITH DIFFERENT WEIGHTS1</t>
+  </si>
+  <si>
+    <t>FL, KY, TN</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP NO.2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP TYPE2</t>
+  </si>
+  <si>
+    <t>BASE JURISDICTION WEIGHT2</t>
+  </si>
+  <si>
+    <t>42000</t>
+  </si>
+  <si>
+    <t>MAX GROSS WEIGHT2</t>
+  </si>
+  <si>
+    <t>JUR WITH DIFFERENT WEIGHTS2</t>
+  </si>
+  <si>
+    <t>FL, GA, IL, KY, MS, TN</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP NO.3</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP TYPE3</t>
+  </si>
+  <si>
+    <t>BASE JURISDICTION WEIGHT3</t>
+  </si>
+  <si>
+    <t>54000</t>
+  </si>
+  <si>
+    <t>MAX GROSS WEIGHT3</t>
+  </si>
+  <si>
+    <t>JUR WITH DIFFERENT WEIGHTS3</t>
+  </si>
+  <si>
+    <t>FL, GA, IL, KY, TN</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP NO.4</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP TYPE4</t>
+  </si>
+  <si>
+    <t>BASE JURISDICTION WEIGHT4</t>
+  </si>
+  <si>
+    <t>MAX GROSS WEIGHT4</t>
+  </si>
+  <si>
+    <t>JUR WITH DIFFERENT WEIGHTS4</t>
+  </si>
+  <si>
+    <t>AL, FL, GA, IL, KY, TN</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP NO.5</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP TYPE5</t>
+  </si>
+  <si>
+    <t>BASE JURISDICTION WEIGHT5</t>
+  </si>
+  <si>
+    <t>66000</t>
+  </si>
+  <si>
+    <t>MAX GROSS WEIGHT5</t>
+  </si>
+  <si>
+    <t>JUR WITH DIFFERENT WEIGHTS5</t>
+  </si>
+  <si>
+    <t>FL, GA, IL, KY</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP NO.6</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP TYPE6</t>
+  </si>
+  <si>
+    <t>BASE JURISDICTION WEIGHT6</t>
+  </si>
+  <si>
+    <t>MAX GROSS WEIGHT6</t>
+  </si>
+  <si>
+    <t>JUR WITH DIFFERENT WEIGHTS6</t>
+  </si>
+  <si>
+    <t>AL, FL, GA, IL, KY, MN</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP NO.7</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP TYPE7</t>
+  </si>
+  <si>
+    <t>BASE JURISDICTION WEIGHT7</t>
+  </si>
+  <si>
+    <t>78000</t>
+  </si>
+  <si>
+    <t>MAX GROSS WEIGHT7</t>
+  </si>
+  <si>
+    <t>JUR WITH DIFFERENT WEIGHTS7</t>
+  </si>
+  <si>
+    <t>FL, GA, IL, KY, LA, MS, OK, TN</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP NO.8</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP TYPE8</t>
+  </si>
+  <si>
+    <t>BASE JURISDICTION WEIGHT8</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>MAX GROSS WEIGHT8</t>
+  </si>
+  <si>
+    <t>JUR WITH DIFFERENT WEIGHTS8</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP NO.9</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP TYPE9</t>
+  </si>
+  <si>
+    <t>BASE JURISDICTION WEIGHT9</t>
+  </si>
+  <si>
+    <t>MAX GROSS WEIGHT9</t>
+  </si>
+  <si>
+    <t>JUR WITH DIFFERENT WEIGHTS9</t>
+  </si>
+  <si>
+    <t>IA, KS, OK</t>
+  </si>
+  <si>
+    <t>Amended Vehicles</t>
+  </si>
+  <si>
+    <t>Added Vehicles</t>
+  </si>
+  <si>
+    <t>Deleted Vehicle</t>
+  </si>
+  <si>
+    <t>Renewed Vehicles</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>Reg. Month</t>
+  </si>
+  <si>
+    <t>No. of Veh in Supp</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>Supplement Status</t>
+  </si>
+  <si>
+    <t>O - OPEN</t>
+  </si>
+  <si>
+    <t>Enterprise System Credit</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>IRP System Credit</t>
+  </si>
+  <si>
+    <t>*Renewal Fee Effective Date</t>
+  </si>
+  <si>
+    <t>Invoice Date</t>
+  </si>
+  <si>
+    <t>*Application Receipt Date</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
+  </si>
+  <si>
+    <t>Exchange Rate</t>
+  </si>
+  <si>
+    <t>0.797800</t>
+  </si>
+  <si>
+    <t>Manual Adj. Base Jur.</t>
+  </si>
+  <si>
+    <t>Batch Billing</t>
+  </si>
+  <si>
+    <t>TVR</t>
+  </si>
+  <si>
+    <t>Installment Plan</t>
+  </si>
+  <si>
+    <t>Use One-Time Mailing Address</t>
+  </si>
+  <si>
+    <t>Electronic Delivery Type</t>
+  </si>
+  <si>
+    <t>E - EMAIL</t>
+  </si>
+  <si>
+    <t>TEST@CELTIC.BZ</t>
+  </si>
+  <si>
+    <t>Invoice Report Type</t>
+  </si>
+  <si>
+    <t>Summary Invoice</t>
+  </si>
+  <si>
+    <t>FEE TYPE0</t>
+  </si>
+  <si>
+    <t>MO Schedule I</t>
+  </si>
+  <si>
+    <t>FEE AMT($)0</t>
+  </si>
+  <si>
+    <t>FEE TYPE1</t>
+  </si>
+  <si>
+    <t>MO Schedule II</t>
+  </si>
+  <si>
+    <t>FEE AMT($)1</t>
+  </si>
+  <si>
+    <t>FEE TYPE2</t>
+  </si>
+  <si>
+    <t>MO Schedule I Credit Applied</t>
+  </si>
+  <si>
+    <t>FEE AMT($)2</t>
+  </si>
+  <si>
+    <t>FEE TYPE3</t>
+  </si>
+  <si>
+    <t>MO Schedule II Credit Applied</t>
+  </si>
+  <si>
+    <t>FEE AMT($)3</t>
+  </si>
+  <si>
+    <t>FEE TYPE4</t>
+  </si>
+  <si>
+    <t>Foreign Jurisdiction Fees</t>
+  </si>
+  <si>
+    <t>FEE AMT($)4</t>
+  </si>
+  <si>
+    <t>FEE TYPE5</t>
+  </si>
+  <si>
+    <t>Foreign Jurisdiction Credit Applied</t>
+  </si>
+  <si>
+    <t>FEE AMT($)5</t>
+  </si>
+  <si>
+    <t>FEE TYPE6</t>
+  </si>
+  <si>
+    <t>In-State Credit Schedule I</t>
+  </si>
+  <si>
+    <t>FEE AMT($)6</t>
+  </si>
+  <si>
+    <t>FEE TYPE7</t>
+  </si>
+  <si>
+    <t>In-State Credit Schedule II</t>
+  </si>
+  <si>
+    <t>FEE AMT($)7</t>
+  </si>
+  <si>
+    <t>FEE TYPE8</t>
+  </si>
+  <si>
+    <t>Bicentennial Fee</t>
+  </si>
+  <si>
+    <t>FEE AMT($)8</t>
+  </si>
+  <si>
+    <t>FEE TYPE9</t>
+  </si>
+  <si>
+    <t>Grade Crossing Fee</t>
+  </si>
+  <si>
+    <t>FEE AMT($)9</t>
+  </si>
+  <si>
+    <t>FEE TYPE10</t>
+  </si>
+  <si>
+    <t>Replacement Plate Fee</t>
+  </si>
+  <si>
+    <t>FEE AMT($)10</t>
+  </si>
+  <si>
+    <t>FEE TYPE11</t>
+  </si>
+  <si>
+    <t>Second Plate Fee</t>
+  </si>
+  <si>
+    <t>FEE AMT($)11</t>
+  </si>
+  <si>
+    <t>FEE TYPE12</t>
+  </si>
+  <si>
+    <t>Late Filing Penalty</t>
+  </si>
+  <si>
+    <t>FEE AMT($)12</t>
+  </si>
+  <si>
+    <t>FEE TYPE13</t>
+  </si>
+  <si>
+    <t>Late Pay Penalty</t>
+  </si>
+  <si>
+    <t>FEE AMT($)13</t>
+  </si>
+  <si>
+    <t>FEE TYPE14</t>
+  </si>
+  <si>
+    <t>Transfer Fee</t>
+  </si>
+  <si>
+    <t>FEE AMT($)14</t>
+  </si>
+  <si>
+    <t>FEE TYPE15</t>
+  </si>
+  <si>
+    <t>Transfer Revenue Fee</t>
+  </si>
+  <si>
+    <t>FEE AMT($)15</t>
+  </si>
+  <si>
+    <t>FEE TYPE16</t>
+  </si>
+  <si>
+    <t>Wire Transfer Fee</t>
+  </si>
+  <si>
+    <t>FEE AMT($)16</t>
+  </si>
+  <si>
+    <t>TVR No. of Days</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Invoice No.</t>
+  </si>
+  <si>
+    <t>3267455</t>
+  </si>
+  <si>
+    <t>*Payment Receipt Date</t>
+  </si>
+  <si>
+    <t>10/27/2022</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>Batch Credential</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>Use IFTA Distance</t>
-  </si>
-  <si>
-    <t>Mobile Notification</t>
-  </si>
-  <si>
-    <t>IRP Requirements Form</t>
-  </si>
-  <si>
-    <t>N - NOT REQUIRED</t>
-  </si>
-  <si>
-    <t>Statement of Understanding</t>
-  </si>
-  <si>
-    <t>Installment Agreement</t>
-  </si>
-  <si>
-    <t>Power of Attorney</t>
-  </si>
-  <si>
-    <t>HVUT - Form 2290</t>
-  </si>
-  <si>
-    <t>O - OUTSTANDING</t>
-  </si>
-  <si>
-    <t>Property Tax</t>
-  </si>
-  <si>
-    <t>Reporting Period From</t>
-  </si>
-  <si>
-    <t>07/01/2020</t>
-  </si>
-  <si>
-    <t>Reporting Period To</t>
-  </si>
-  <si>
-    <t>06/30/2021</t>
-  </si>
-  <si>
-    <t>Avg. Per Vehicle Distance Chart</t>
-  </si>
-  <si>
-    <t>Override Contiguous Jur.</t>
-  </si>
-  <si>
-    <t>Estimated Distance</t>
-  </si>
-  <si>
-    <t>Actual Distance</t>
-  </si>
-  <si>
-    <t>Total Fleet Distance</t>
-  </si>
-  <si>
-    <t>Do you have actual distance for the reporting period?</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Distance Type</t>
-  </si>
-  <si>
-    <t>A - Actual</t>
-  </si>
-  <si>
-    <t>We certify that the actual distance submitted is accurate</t>
-  </si>
-  <si>
-    <t>JURISDICTION0</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>PERCENT0</t>
-  </si>
-  <si>
-    <t>00.00000</t>
-  </si>
-  <si>
-    <t>JURISDICTION1</t>
-  </si>
-  <si>
-    <t>AL - ALABAMA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)1</t>
-  </si>
-  <si>
-    <t>PERCENT1</t>
-  </si>
-  <si>
-    <t>JURISDICTION2</t>
-  </si>
-  <si>
-    <t>AR - ARKANSAS</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)2</t>
-  </si>
-  <si>
-    <t>PERCENT2</t>
-  </si>
-  <si>
-    <t>JURISDICTION3</t>
-  </si>
-  <si>
-    <t>AZ - ARIZONA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)3</t>
-  </si>
-  <si>
-    <t>PERCENT3</t>
-  </si>
-  <si>
-    <t>JURISDICTION4</t>
-  </si>
-  <si>
-    <t>CA - CALIFORNIA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)4</t>
-  </si>
-  <si>
-    <t>PERCENT4</t>
-  </si>
-  <si>
-    <t>JURISDICTION5</t>
-  </si>
-  <si>
-    <t>CO - COLORADO</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)5</t>
-  </si>
-  <si>
-    <t>PERCENT5</t>
-  </si>
-  <si>
-    <t>JURISDICTION6</t>
-  </si>
-  <si>
-    <t>CT - CONNECTICUT</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)6</t>
-  </si>
-  <si>
-    <t>PERCENT6</t>
-  </si>
-  <si>
-    <t>JURISDICTION7</t>
-  </si>
-  <si>
-    <t>DC - DISTRICT OF COLUMBIA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)7</t>
-  </si>
-  <si>
-    <t>PERCENT7</t>
-  </si>
-  <si>
-    <t>JURISDICTION8</t>
-  </si>
-  <si>
-    <t>DE - DELAWARE</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)8</t>
-  </si>
-  <si>
-    <t>PERCENT8</t>
-  </si>
-  <si>
-    <t>JURISDICTION9</t>
-  </si>
-  <si>
-    <t>FL - FLORIDA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)9</t>
-  </si>
-  <si>
-    <t>PERCENT9</t>
-  </si>
-  <si>
-    <t>JURISDICTION10</t>
-  </si>
-  <si>
-    <t>GA - GEORGIA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)10</t>
-  </si>
-  <si>
-    <t>PERCENT10</t>
-  </si>
-  <si>
-    <t>JURISDICTION11</t>
-  </si>
-  <si>
-    <t>IA - IOWA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)11</t>
-  </si>
-  <si>
-    <t>PERCENT11</t>
-  </si>
-  <si>
-    <t>JURISDICTION12</t>
-  </si>
-  <si>
-    <t>ID - IDAHO</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)12</t>
-  </si>
-  <si>
-    <t>PERCENT12</t>
-  </si>
-  <si>
-    <t>JURISDICTION13</t>
-  </si>
-  <si>
-    <t>IL - ILLINOIS</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)13</t>
-  </si>
-  <si>
-    <t>PERCENT13</t>
-  </si>
-  <si>
-    <t>JURISDICTION14</t>
-  </si>
-  <si>
-    <t>IN - INDIANA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)14</t>
-  </si>
-  <si>
-    <t>PERCENT14</t>
-  </si>
-  <si>
-    <t>JURISDICTION15</t>
-  </si>
-  <si>
-    <t>KS - KANSAS</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)15</t>
-  </si>
-  <si>
-    <t>PERCENT15</t>
-  </si>
-  <si>
-    <t>JURISDICTION16</t>
-  </si>
-  <si>
-    <t>KY - KENTUCKY</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)16</t>
-  </si>
-  <si>
-    <t>PERCENT16</t>
-  </si>
-  <si>
-    <t>JURISDICTION17</t>
-  </si>
-  <si>
-    <t>LA - LOUISIANA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)17</t>
-  </si>
-  <si>
-    <t>PERCENT17</t>
-  </si>
-  <si>
-    <t>JURISDICTION18</t>
-  </si>
-  <si>
-    <t>MA - MASSACHUSETTS</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)18</t>
-  </si>
-  <si>
-    <t>PERCENT18</t>
-  </si>
-  <si>
-    <t>JURISDICTION19</t>
-  </si>
-  <si>
-    <t>MD - MARYLAND</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)19</t>
-  </si>
-  <si>
-    <t>PERCENT19</t>
-  </si>
-  <si>
-    <t>JURISDICTION20</t>
-  </si>
-  <si>
-    <t>ME - MAINE</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)20</t>
-  </si>
-  <si>
-    <t>PERCENT20</t>
-  </si>
-  <si>
-    <t>JURISDICTION21</t>
-  </si>
-  <si>
-    <t>MI - MICHIGAN</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)21</t>
-  </si>
-  <si>
-    <t>PERCENT21</t>
-  </si>
-  <si>
-    <t>JURISDICTION22</t>
-  </si>
-  <si>
-    <t>MN - MINNESOTA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)22</t>
-  </si>
-  <si>
-    <t>PERCENT22</t>
-  </si>
-  <si>
-    <t>JURISDICTION23</t>
-  </si>
-  <si>
-    <t>MS - MISSISSIPPI</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)23</t>
-  </si>
-  <si>
-    <t>PERCENT23</t>
-  </si>
-  <si>
-    <t>JURISDICTION24</t>
-  </si>
-  <si>
-    <t>MT - MONTANA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)24</t>
-  </si>
-  <si>
-    <t>PERCENT24</t>
-  </si>
-  <si>
-    <t>JURISDICTION25</t>
-  </si>
-  <si>
-    <t>NC - NORTH CAROLINA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)25</t>
-  </si>
-  <si>
-    <t>PERCENT25</t>
-  </si>
-  <si>
-    <t>JURISDICTION26</t>
-  </si>
-  <si>
-    <t>ND - NORTH DAKOTA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)26</t>
-  </si>
-  <si>
-    <t>PERCENT26</t>
-  </si>
-  <si>
-    <t>JURISDICTION27</t>
-  </si>
-  <si>
-    <t>NE - NEBRASKA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)27</t>
-  </si>
-  <si>
-    <t>PERCENT27</t>
-  </si>
-  <si>
-    <t>JURISDICTION28</t>
-  </si>
-  <si>
-    <t>NH - NEW HAMPSHIRE</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)28</t>
-  </si>
-  <si>
-    <t>PERCENT28</t>
-  </si>
-  <si>
-    <t>JURISDICTION29</t>
-  </si>
-  <si>
-    <t>NJ - NEW JERSEY</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)29</t>
-  </si>
-  <si>
-    <t>PERCENT29</t>
-  </si>
-  <si>
-    <t>JURISDICTION30</t>
-  </si>
-  <si>
-    <t>NM - NEW MEXICO</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)30</t>
-  </si>
-  <si>
-    <t>PERCENT30</t>
-  </si>
-  <si>
-    <t>JURISDICTION31</t>
-  </si>
-  <si>
-    <t>NV - NEVADA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)31</t>
-  </si>
-  <si>
-    <t>PERCENT31</t>
-  </si>
-  <si>
-    <t>JURISDICTION32</t>
-  </si>
-  <si>
-    <t>NY - NEW YORK</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)32</t>
-  </si>
-  <si>
-    <t>PERCENT32</t>
-  </si>
-  <si>
-    <t>JURISDICTION33</t>
-  </si>
-  <si>
-    <t>OH - OHIO</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)33</t>
-  </si>
-  <si>
-    <t>PERCENT33</t>
-  </si>
-  <si>
-    <t>JURISDICTION34</t>
-  </si>
-  <si>
-    <t>OK - OKLAHOMA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)34</t>
-  </si>
-  <si>
-    <t>PERCENT34</t>
-  </si>
-  <si>
-    <t>JURISDICTION35</t>
-  </si>
-  <si>
-    <t>OR - OREGON</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)35</t>
-  </si>
-  <si>
-    <t>PERCENT35</t>
-  </si>
-  <si>
-    <t>JURISDICTION36</t>
-  </si>
-  <si>
-    <t>PA - PENNSYLVANIA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)36</t>
-  </si>
-  <si>
-    <t>PERCENT36</t>
-  </si>
-  <si>
-    <t>JURISDICTION37</t>
-  </si>
-  <si>
-    <t>RI - RHODE ISLAND</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)37</t>
-  </si>
-  <si>
-    <t>PERCENT37</t>
-  </si>
-  <si>
-    <t>JURISDICTION38</t>
-  </si>
-  <si>
-    <t>SC - SOUTH CAROLINA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)38</t>
-  </si>
-  <si>
-    <t>PERCENT38</t>
-  </si>
-  <si>
-    <t>JURISDICTION39</t>
-  </si>
-  <si>
-    <t>SD - SOUTH DAKOTA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)39</t>
-  </si>
-  <si>
-    <t>PERCENT39</t>
-  </si>
-  <si>
-    <t>JURISDICTION40</t>
-  </si>
-  <si>
-    <t>TN - TENNESSEE</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)40</t>
-  </si>
-  <si>
-    <t>PERCENT40</t>
-  </si>
-  <si>
-    <t>JURISDICTION41</t>
-  </si>
-  <si>
-    <t>TX - TEXAS</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)41</t>
-  </si>
-  <si>
-    <t>PERCENT41</t>
-  </si>
-  <si>
-    <t>JURISDICTION42</t>
-  </si>
-  <si>
-    <t>UT - UTAH</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)42</t>
-  </si>
-  <si>
-    <t>PERCENT42</t>
-  </si>
-  <si>
-    <t>JURISDICTION43</t>
-  </si>
-  <si>
-    <t>VA - VIRGINIA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)43</t>
-  </si>
-  <si>
-    <t>PERCENT43</t>
-  </si>
-  <si>
-    <t>JURISDICTION44</t>
-  </si>
-  <si>
-    <t>VT - VERMONT</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)44</t>
-  </si>
-  <si>
-    <t>PERCENT44</t>
-  </si>
-  <si>
-    <t>JURISDICTION45</t>
-  </si>
-  <si>
-    <t>WA - WASHINGTON</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)45</t>
-  </si>
-  <si>
-    <t>PERCENT45</t>
-  </si>
-  <si>
-    <t>JURISDICTION46</t>
-  </si>
-  <si>
-    <t>WI - WISCONSIN</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)46</t>
-  </si>
-  <si>
-    <t>PERCENT46</t>
-  </si>
-  <si>
-    <t>JURISDICTION47</t>
-  </si>
-  <si>
-    <t>WV - WEST VIRGINIA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)47</t>
-  </si>
-  <si>
-    <t>PERCENT47</t>
-  </si>
-  <si>
-    <t>JURISDICTION48</t>
-  </si>
-  <si>
-    <t>WY - WYOMING</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)48</t>
-  </si>
-  <si>
-    <t>PERCENT48</t>
-  </si>
-  <si>
-    <t>JURISDICTION49</t>
-  </si>
-  <si>
-    <t>AB - ALBERTA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)49</t>
-  </si>
-  <si>
-    <t>PERCENT49</t>
-  </si>
-  <si>
-    <t>JURISDICTION50</t>
-  </si>
-  <si>
-    <t>BC - BRITISH COLUMBIA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)50</t>
-  </si>
-  <si>
-    <t>PERCENT50</t>
-  </si>
-  <si>
-    <t>JURISDICTION51</t>
-  </si>
-  <si>
-    <t>MB - MANITOBA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)51</t>
-  </si>
-  <si>
-    <t>PERCENT51</t>
-  </si>
-  <si>
-    <t>JURISDICTION52</t>
-  </si>
-  <si>
-    <t>NB - NEW BRUNSWICK</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)52</t>
-  </si>
-  <si>
-    <t>PERCENT52</t>
-  </si>
-  <si>
-    <t>JURISDICTION53</t>
-  </si>
-  <si>
-    <t>NL - NEWFOUNDLAND AND LABRADOR</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)53</t>
-  </si>
-  <si>
-    <t>PERCENT53</t>
-  </si>
-  <si>
-    <t>JURISDICTION54</t>
-  </si>
-  <si>
-    <t>NS - NOVA SCOTIA</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)54</t>
-  </si>
-  <si>
-    <t>PERCENT54</t>
-  </si>
-  <si>
-    <t>JURISDICTION55</t>
-  </si>
-  <si>
-    <t>ON - ONTARIO</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)55</t>
-  </si>
-  <si>
-    <t>PERCENT55</t>
-  </si>
-  <si>
-    <t>JURISDICTION56</t>
-  </si>
-  <si>
-    <t>PE - PRINCE EDWARD ISLAND</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)56</t>
-  </si>
-  <si>
-    <t>PERCENT56</t>
-  </si>
-  <si>
-    <t>JURISDICTION57</t>
-  </si>
-  <si>
-    <t>QC - QUEBEC</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)57</t>
-  </si>
-  <si>
-    <t>PERCENT57</t>
-  </si>
-  <si>
-    <t>JURISDICTION58</t>
-  </si>
-  <si>
-    <t>SK - SASKATCHEWAN</t>
-  </si>
-  <si>
-    <t>DISTANCE (MILES)58</t>
-  </si>
-  <si>
-    <t>PERCENT58</t>
-  </si>
-  <si>
-    <t>WEIGHT GROUP NO.0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>WEIGHT GROUP TYPE0</t>
-  </si>
-  <si>
-    <t>P - POWER UNIT</t>
-  </si>
-  <si>
-    <t>BASE JURISDICTION WEIGHT0</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>MAX GROSS WEIGHT0</t>
-  </si>
-  <si>
-    <t>JUR WITH DIFFERENT WEIGHTS0</t>
-  </si>
-  <si>
-    <t>WEIGHT GROUP NO.1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>WEIGHT GROUP TYPE1</t>
-  </si>
-  <si>
-    <t>BASE JURISDICTION WEIGHT1</t>
-  </si>
-  <si>
-    <t>MAX GROSS WEIGHT1</t>
-  </si>
-  <si>
-    <t>JUR WITH DIFFERENT WEIGHTS1</t>
-  </si>
-  <si>
-    <t>WEIGHT GROUP NO.2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>WEIGHT GROUP TYPE2</t>
-  </si>
-  <si>
-    <t>T - TRAILER</t>
-  </si>
-  <si>
-    <t>BASE JURISDICTION WEIGHT2</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>MAX GROSS WEIGHT2</t>
-  </si>
-  <si>
-    <t>JUR WITH DIFFERENT WEIGHTS2</t>
-  </si>
-  <si>
-    <t>Reg. Month</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>No. of Veh in Supp</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>Supplement Status</t>
-  </si>
-  <si>
-    <t>O - OPEN</t>
-  </si>
-  <si>
-    <t>Enterprise System Credit</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>IRP System Credit</t>
-  </si>
-  <si>
-    <t>*Renewal Fee Effective Date</t>
-  </si>
-  <si>
-    <t>Invoice Date</t>
-  </si>
-  <si>
-    <t>*Application Receipt Date</t>
-  </si>
-  <si>
-    <t>Payment Date</t>
-  </si>
-  <si>
-    <t>Exchange Rate</t>
-  </si>
-  <si>
-    <t>0.797800</t>
-  </si>
-  <si>
-    <t>Manual Adj. Base Jur.</t>
-  </si>
-  <si>
-    <t>Batch Billing</t>
-  </si>
-  <si>
-    <t>TVR</t>
-  </si>
-  <si>
-    <t>Installment Plan</t>
-  </si>
-  <si>
-    <t>Use One-Time Mailing Address</t>
-  </si>
-  <si>
-    <t>Electronic Delivery Type</t>
-  </si>
-  <si>
-    <t>E - EMAIL</t>
-  </si>
-  <si>
-    <t>TEST@CELTIC.BZ</t>
-  </si>
-  <si>
-    <t>Invoice Report Type</t>
-  </si>
-  <si>
-    <t>Summary Invoice</t>
-  </si>
-  <si>
-    <t>FEE TYPE0</t>
-  </si>
-  <si>
-    <t>MO Schedule I</t>
-  </si>
-  <si>
-    <t>FEE AMT($)0</t>
-  </si>
-  <si>
-    <t>FEE TYPE1</t>
-  </si>
-  <si>
-    <t>MO Schedule II</t>
-  </si>
-  <si>
-    <t>FEE AMT($)1</t>
-  </si>
-  <si>
-    <t>FEE TYPE2</t>
-  </si>
-  <si>
-    <t>MO Schedule I Credit Applied</t>
-  </si>
-  <si>
-    <t>FEE AMT($)2</t>
-  </si>
-  <si>
-    <t>FEE TYPE3</t>
-  </si>
-  <si>
-    <t>MO Schedule II Credit Applied</t>
-  </si>
-  <si>
-    <t>FEE AMT($)3</t>
-  </si>
-  <si>
-    <t>FEE TYPE4</t>
-  </si>
-  <si>
-    <t>Foreign Jurisdiction Fees</t>
-  </si>
-  <si>
-    <t>FEE AMT($)4</t>
-  </si>
-  <si>
-    <t>FEE TYPE5</t>
-  </si>
-  <si>
-    <t>Foreign Jurisdiction Credit Applied</t>
-  </si>
-  <si>
-    <t>FEE AMT($)5</t>
-  </si>
-  <si>
-    <t>FEE TYPE6</t>
-  </si>
-  <si>
-    <t>In-State Credit Schedule I</t>
-  </si>
-  <si>
-    <t>FEE AMT($)6</t>
-  </si>
-  <si>
-    <t>FEE TYPE7</t>
-  </si>
-  <si>
-    <t>In-State Credit Schedule II</t>
-  </si>
-  <si>
-    <t>FEE AMT($)7</t>
-  </si>
-  <si>
-    <t>FEE TYPE8</t>
-  </si>
-  <si>
-    <t>Bicentennial Fee</t>
-  </si>
-  <si>
-    <t>FEE AMT($)8</t>
-  </si>
-  <si>
-    <t>FEE TYPE9</t>
-  </si>
-  <si>
-    <t>Grade Crossing Fee</t>
-  </si>
-  <si>
-    <t>FEE AMT($)9</t>
-  </si>
-  <si>
-    <t>FEE TYPE10</t>
-  </si>
-  <si>
-    <t>Replacement Plate Fee</t>
-  </si>
-  <si>
-    <t>FEE AMT($)10</t>
-  </si>
-  <si>
-    <t>FEE TYPE11</t>
-  </si>
-  <si>
-    <t>Second Plate Fee</t>
-  </si>
-  <si>
-    <t>FEE AMT($)11</t>
-  </si>
-  <si>
-    <t>FEE TYPE12</t>
-  </si>
-  <si>
-    <t>Late Filing Penalty</t>
-  </si>
-  <si>
-    <t>FEE AMT($)12</t>
-  </si>
-  <si>
-    <t>FEE TYPE13</t>
-  </si>
-  <si>
-    <t>Late Pay Penalty</t>
-  </si>
-  <si>
-    <t>FEE AMT($)13</t>
-  </si>
-  <si>
-    <t>FEE TYPE14</t>
-  </si>
-  <si>
-    <t>Transfer Fee</t>
-  </si>
-  <si>
-    <t>FEE AMT($)14</t>
-  </si>
-  <si>
-    <t>FEE TYPE15</t>
-  </si>
-  <si>
-    <t>Transfer Revenue Fee</t>
-  </si>
-  <si>
-    <t>FEE AMT($)15</t>
-  </si>
-  <si>
-    <t>FEE TYPE16</t>
-  </si>
-  <si>
-    <t>Wire Transfer Fee</t>
-  </si>
-  <si>
-    <t>FEE AMT($)16</t>
-  </si>
-  <si>
-    <t>TVR No. of Days</t>
-  </si>
-  <si>
-    <t>45</t>
+    <t>D - PDF</t>
+  </si>
+  <si>
+    <t>1248.54</t>
+  </si>
+  <si>
+    <t>555.45</t>
+  </si>
+  <si>
+    <t>152666.75</t>
+  </si>
+  <si>
+    <t>36.50</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>FEE TYPE17</t>
+  </si>
+  <si>
+    <t>Amount Due</t>
+  </si>
+  <si>
+    <t>FEE AMT($)17</t>
+  </si>
+  <si>
+    <t>154775.74</t>
   </si>
 </sst>
 </file>
@@ -1718,12 +1969,297 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AS2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H1" t="s">
+        <v>515</v>
+      </c>
+      <c r="I1" t="s">
+        <v>461</v>
+      </c>
+      <c r="J1" t="s">
+        <v>466</v>
+      </c>
+      <c r="K1" t="s">
+        <v>468</v>
+      </c>
+      <c r="L1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M1" t="s">
+        <v>471</v>
+      </c>
+      <c r="N1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O1" t="s">
+        <v>474</v>
+      </c>
+      <c r="P1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>477</v>
+      </c>
+      <c r="R1" t="s">
+        <v>478</v>
+      </c>
+      <c r="S1" t="s">
+        <v>480</v>
+      </c>
+      <c r="T1" t="s">
+        <v>481</v>
+      </c>
+      <c r="U1" t="s">
+        <v>483</v>
+      </c>
+      <c r="V1" t="s">
+        <v>484</v>
+      </c>
+      <c r="W1" t="s">
+        <v>486</v>
+      </c>
+      <c r="X1" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>489</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>499</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>502</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>504</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>505</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>507</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>510</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>511</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>514</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>516</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>534</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F2" t="s">
+        <v>523</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2" t="s">
+        <v>525</v>
+      </c>
+      <c r="I2" t="s">
+        <v>526</v>
+      </c>
+      <c r="J2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K2" t="s">
+        <v>527</v>
+      </c>
+      <c r="L2" t="s">
+        <v>470</v>
+      </c>
+      <c r="M2" t="s">
+        <v>528</v>
+      </c>
+      <c r="N2" t="s">
+        <v>473</v>
+      </c>
+      <c r="O2" t="s">
+        <v>448</v>
+      </c>
+      <c r="P2" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>448</v>
+      </c>
+      <c r="R2" t="s">
+        <v>479</v>
+      </c>
+      <c r="S2" t="s">
+        <v>529</v>
+      </c>
+      <c r="T2" t="s">
+        <v>482</v>
+      </c>
+      <c r="U2" t="s">
+        <v>448</v>
+      </c>
+      <c r="V2" t="s">
+        <v>485</v>
+      </c>
+      <c r="W2" t="s">
+        <v>448</v>
+      </c>
+      <c r="X2" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>531</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>500</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>503</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>532</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>506</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>533</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>509</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>512</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>515</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>535</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -2079,28 +2615,28 @@
         <v>92</v>
       </c>
       <c r="BD1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE1" t="s">
         <v>94</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>95</v>
       </c>
-      <c r="BF1" t="s">
-        <v>96</v>
-      </c>
       <c r="BG1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH1" t="s">
         <v>98</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>99</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>100</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>101</v>
-      </c>
       <c r="BK1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
@@ -2267,7 +2803,7 @@
         <v>91</v>
       </c>
       <c r="BC2" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="BD2" t="s">
         <v>45</v>
@@ -2276,22 +2812,22 @@
         <v>45</v>
       </c>
       <c r="BF2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BG2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BH2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BI2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BJ2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BK2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2309,45 +2845,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
         <v>30</v>
       </c>
       <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>111</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>112</v>
       </c>
-      <c r="I1" t="s">
-        <v>113</v>
-      </c>
       <c r="J1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -2368,10 +2904,10 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s">
         <v>45</v>
@@ -2392,535 +2928,535 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
         <v>118</v>
       </c>
-      <c r="B1" t="s">
-        <v>119</v>
-      </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>126</v>
       </c>
-      <c r="G1" t="s">
-        <v>127</v>
-      </c>
       <c r="H1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" t="s">
         <v>129</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>130</v>
       </c>
-      <c r="J1" t="s">
-        <v>131</v>
-      </c>
       <c r="K1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" t="s">
         <v>133</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>134</v>
       </c>
-      <c r="M1" t="s">
-        <v>135</v>
-      </c>
       <c r="N1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" t="s">
         <v>137</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>138</v>
       </c>
-      <c r="P1" t="s">
-        <v>139</v>
-      </c>
       <c r="Q1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" t="s">
         <v>141</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>142</v>
       </c>
-      <c r="S1" t="s">
-        <v>143</v>
-      </c>
       <c r="T1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U1" t="s">
         <v>145</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>146</v>
       </c>
-      <c r="V1" t="s">
-        <v>147</v>
-      </c>
       <c r="W1" t="s">
+        <v>148</v>
+      </c>
+      <c r="X1" t="s">
         <v>149</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>150</v>
       </c>
-      <c r="Y1" t="s">
-        <v>151</v>
-      </c>
       <c r="Z1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA1" t="s">
         <v>153</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>154</v>
       </c>
-      <c r="AB1" t="s">
-        <v>155</v>
-      </c>
       <c r="AC1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD1" t="s">
         <v>157</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>158</v>
       </c>
-      <c r="AE1" t="s">
-        <v>159</v>
-      </c>
       <c r="AF1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG1" t="s">
         <v>161</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>162</v>
       </c>
-      <c r="AH1" t="s">
-        <v>163</v>
-      </c>
       <c r="AI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>165</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>166</v>
       </c>
-      <c r="AK1" t="s">
-        <v>167</v>
-      </c>
       <c r="AL1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM1" t="s">
         <v>169</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>170</v>
       </c>
-      <c r="AN1" t="s">
-        <v>171</v>
-      </c>
       <c r="AO1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP1" t="s">
         <v>173</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>174</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>175</v>
-      </c>
       <c r="AR1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS1" t="s">
         <v>177</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>178</v>
       </c>
-      <c r="AT1" t="s">
-        <v>179</v>
-      </c>
       <c r="AU1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV1" t="s">
         <v>181</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>182</v>
       </c>
-      <c r="AW1" t="s">
-        <v>183</v>
-      </c>
       <c r="AX1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY1" t="s">
         <v>185</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>186</v>
       </c>
-      <c r="AZ1" t="s">
-        <v>187</v>
-      </c>
       <c r="BA1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BB1" t="s">
         <v>189</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>190</v>
       </c>
-      <c r="BC1" t="s">
-        <v>191</v>
-      </c>
       <c r="BD1" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE1" t="s">
         <v>193</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>194</v>
       </c>
-      <c r="BF1" t="s">
-        <v>195</v>
-      </c>
       <c r="BG1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH1" t="s">
         <v>197</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>198</v>
       </c>
-      <c r="BI1" t="s">
-        <v>199</v>
-      </c>
       <c r="BJ1" t="s">
+        <v>200</v>
+      </c>
+      <c r="BK1" t="s">
         <v>201</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>202</v>
       </c>
-      <c r="BL1" t="s">
-        <v>203</v>
-      </c>
       <c r="BM1" t="s">
+        <v>204</v>
+      </c>
+      <c r="BN1" t="s">
         <v>205</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>206</v>
       </c>
-      <c r="BO1" t="s">
-        <v>207</v>
-      </c>
       <c r="BP1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>210</v>
       </c>
-      <c r="BR1" t="s">
-        <v>211</v>
-      </c>
       <c r="BS1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BT1" t="s">
         <v>213</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>214</v>
       </c>
-      <c r="BU1" t="s">
-        <v>215</v>
-      </c>
       <c r="BV1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW1" t="s">
         <v>217</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>218</v>
       </c>
-      <c r="BX1" t="s">
-        <v>219</v>
-      </c>
       <c r="BY1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BZ1" t="s">
         <v>221</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>222</v>
       </c>
-      <c r="CA1" t="s">
-        <v>223</v>
-      </c>
       <c r="CB1" t="s">
+        <v>224</v>
+      </c>
+      <c r="CC1" t="s">
         <v>225</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>226</v>
       </c>
-      <c r="CD1" t="s">
-        <v>227</v>
-      </c>
       <c r="CE1" t="s">
+        <v>228</v>
+      </c>
+      <c r="CF1" t="s">
         <v>229</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>230</v>
       </c>
-      <c r="CG1" t="s">
-        <v>231</v>
-      </c>
       <c r="CH1" t="s">
+        <v>232</v>
+      </c>
+      <c r="CI1" t="s">
         <v>233</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>234</v>
       </c>
-      <c r="CJ1" t="s">
-        <v>235</v>
-      </c>
       <c r="CK1" t="s">
+        <v>236</v>
+      </c>
+      <c r="CL1" t="s">
         <v>237</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>238</v>
       </c>
-      <c r="CM1" t="s">
-        <v>239</v>
-      </c>
       <c r="CN1" t="s">
+        <v>240</v>
+      </c>
+      <c r="CO1" t="s">
         <v>241</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>242</v>
       </c>
-      <c r="CP1" t="s">
-        <v>243</v>
-      </c>
       <c r="CQ1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CR1" t="s">
         <v>245</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>246</v>
       </c>
-      <c r="CS1" t="s">
-        <v>247</v>
-      </c>
       <c r="CT1" t="s">
+        <v>248</v>
+      </c>
+      <c r="CU1" t="s">
         <v>249</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>250</v>
       </c>
-      <c r="CV1" t="s">
-        <v>251</v>
-      </c>
       <c r="CW1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CX1" t="s">
         <v>253</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>254</v>
       </c>
-      <c r="CY1" t="s">
-        <v>255</v>
-      </c>
       <c r="CZ1" t="s">
+        <v>256</v>
+      </c>
+      <c r="DA1" t="s">
         <v>257</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>258</v>
       </c>
-      <c r="DB1" t="s">
-        <v>259</v>
-      </c>
       <c r="DC1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DD1" t="s">
         <v>261</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>262</v>
       </c>
-      <c r="DE1" t="s">
-        <v>263</v>
-      </c>
       <c r="DF1" t="s">
+        <v>264</v>
+      </c>
+      <c r="DG1" t="s">
         <v>265</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" t="s">
         <v>266</v>
       </c>
-      <c r="DH1" t="s">
-        <v>267</v>
-      </c>
       <c r="DI1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DJ1" t="s">
         <v>269</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DK1" t="s">
         <v>270</v>
       </c>
-      <c r="DK1" t="s">
-        <v>271</v>
-      </c>
       <c r="DL1" t="s">
+        <v>272</v>
+      </c>
+      <c r="DM1" t="s">
         <v>273</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DN1" t="s">
         <v>274</v>
       </c>
-      <c r="DN1" t="s">
-        <v>275</v>
-      </c>
       <c r="DO1" t="s">
+        <v>276</v>
+      </c>
+      <c r="DP1" t="s">
         <v>277</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DQ1" t="s">
         <v>278</v>
       </c>
-      <c r="DQ1" t="s">
-        <v>279</v>
-      </c>
       <c r="DR1" t="s">
+        <v>280</v>
+      </c>
+      <c r="DS1" t="s">
         <v>281</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DT1" t="s">
         <v>282</v>
       </c>
-      <c r="DT1" t="s">
-        <v>283</v>
-      </c>
       <c r="DU1" t="s">
+        <v>284</v>
+      </c>
+      <c r="DV1" t="s">
         <v>285</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>286</v>
       </c>
-      <c r="DW1" t="s">
-        <v>287</v>
-      </c>
       <c r="DX1" t="s">
+        <v>288</v>
+      </c>
+      <c r="DY1" t="s">
         <v>289</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
         <v>290</v>
       </c>
-      <c r="DZ1" t="s">
-        <v>291</v>
-      </c>
       <c r="EA1" t="s">
+        <v>292</v>
+      </c>
+      <c r="EB1" t="s">
         <v>293</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EC1" t="s">
         <v>294</v>
       </c>
-      <c r="EC1" t="s">
-        <v>295</v>
-      </c>
       <c r="ED1" t="s">
+        <v>296</v>
+      </c>
+      <c r="EE1" t="s">
         <v>297</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EF1" t="s">
         <v>298</v>
       </c>
-      <c r="EF1" t="s">
-        <v>299</v>
-      </c>
       <c r="EG1" t="s">
+        <v>300</v>
+      </c>
+      <c r="EH1" t="s">
         <v>301</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EI1" t="s">
         <v>302</v>
       </c>
-      <c r="EI1" t="s">
-        <v>303</v>
-      </c>
       <c r="EJ1" t="s">
+        <v>304</v>
+      </c>
+      <c r="EK1" t="s">
         <v>305</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EL1" t="s">
         <v>306</v>
       </c>
-      <c r="EL1" t="s">
-        <v>307</v>
-      </c>
       <c r="EM1" t="s">
+        <v>308</v>
+      </c>
+      <c r="EN1" t="s">
         <v>309</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EO1" t="s">
         <v>310</v>
       </c>
-      <c r="EO1" t="s">
-        <v>311</v>
-      </c>
       <c r="EP1" t="s">
+        <v>312</v>
+      </c>
+      <c r="EQ1" t="s">
         <v>313</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ER1" t="s">
         <v>314</v>
       </c>
-      <c r="ER1" t="s">
-        <v>315</v>
-      </c>
       <c r="ES1" t="s">
+        <v>316</v>
+      </c>
+      <c r="ET1" t="s">
         <v>317</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EU1" t="s">
         <v>318</v>
       </c>
-      <c r="EU1" t="s">
-        <v>319</v>
-      </c>
       <c r="EV1" t="s">
+        <v>320</v>
+      </c>
+      <c r="EW1" t="s">
         <v>321</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EX1" t="s">
         <v>322</v>
       </c>
-      <c r="EX1" t="s">
-        <v>323</v>
-      </c>
       <c r="EY1" t="s">
+        <v>324</v>
+      </c>
+      <c r="EZ1" t="s">
         <v>325</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FA1" t="s">
         <v>326</v>
       </c>
-      <c r="FA1" t="s">
-        <v>327</v>
-      </c>
       <c r="FB1" t="s">
+        <v>328</v>
+      </c>
+      <c r="FC1" t="s">
         <v>329</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FD1" t="s">
         <v>330</v>
       </c>
-      <c r="FD1" t="s">
-        <v>331</v>
-      </c>
       <c r="FE1" t="s">
+        <v>332</v>
+      </c>
+      <c r="FF1" t="s">
         <v>333</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FG1" t="s">
         <v>334</v>
       </c>
-      <c r="FG1" t="s">
-        <v>335</v>
-      </c>
       <c r="FH1" t="s">
+        <v>336</v>
+      </c>
+      <c r="FI1" t="s">
         <v>337</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FJ1" t="s">
         <v>338</v>
       </c>
-      <c r="FJ1" t="s">
-        <v>339</v>
-      </c>
       <c r="FK1" t="s">
+        <v>340</v>
+      </c>
+      <c r="FL1" t="s">
         <v>341</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FM1" t="s">
         <v>342</v>
       </c>
-      <c r="FM1" t="s">
-        <v>343</v>
-      </c>
       <c r="FN1" t="s">
+        <v>344</v>
+      </c>
+      <c r="FO1" t="s">
         <v>345</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FP1" t="s">
         <v>346</v>
       </c>
-      <c r="FP1" t="s">
-        <v>347</v>
-      </c>
       <c r="FQ1" t="s">
+        <v>348</v>
+      </c>
+      <c r="FR1" t="s">
         <v>349</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FS1" t="s">
         <v>350</v>
       </c>
-      <c r="FS1" t="s">
-        <v>351</v>
-      </c>
       <c r="FT1" t="s">
+        <v>352</v>
+      </c>
+      <c r="FU1" t="s">
         <v>353</v>
-      </c>
-      <c r="FU1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="2">
@@ -2928,532 +3464,532 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AH2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AL2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AM2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AN2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AO2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AP2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AQ2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AR2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AS2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AU2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AW2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AX2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AY2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BB2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BC2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BD2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BE2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BF2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BG2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BH2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BI2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BJ2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BK2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BL2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BM2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BN2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BO2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BQ2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BR2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BS2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BT2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BU2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BV2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BW2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BX2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BY2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CA2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="CB2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CC2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CD2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="CE2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CF2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CG2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="CH2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CI2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CJ2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="CK2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CL2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CM2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="CN2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CO2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CP2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="CQ2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CR2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CS2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CT2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CU2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CV2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CW2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CX2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CY2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="CZ2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DA2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="DB2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="DC2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DD2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="DE2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="DF2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DG2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="DH2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="DI2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DJ2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="DK2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="DL2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DM2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="DN2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="DO2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DP2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="DQ2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="DR2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DS2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="DT2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DU2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DV2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="DW2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="DX2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DY2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="DZ2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="EA2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EB2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="EC2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="ED2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EE2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="EF2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="EG2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EH2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="EI2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="EJ2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EK2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="EL2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="EM2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EN2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="EO2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="EP2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EQ2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="ER2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="ES2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="ET2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="EU2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="EV2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EW2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="EX2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="EY2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EZ2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="FA2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="FB2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FC2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="FD2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="FE2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FF2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="FG2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="FH2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FI2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="FJ2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="FK2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FL2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="FM2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="FN2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FO2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="FP2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="FQ2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FR2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="FS2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="FT2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FU2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3463,7 +3999,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:BH2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3471,25 +4007,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" t="s">
         <v>355</v>
-      </c>
-      <c r="C1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E1" t="s">
-        <v>361</v>
-      </c>
-      <c r="F1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G1" t="s">
-        <v>356</v>
       </c>
       <c r="H1" t="s">
         <v>363</v>
@@ -3501,28 +4037,154 @@
         <v>366</v>
       </c>
       <c r="K1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N1" t="s">
+        <v>372</v>
+      </c>
+      <c r="O1" t="s">
+        <v>374</v>
+      </c>
+      <c r="P1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>377</v>
+      </c>
+      <c r="R1" t="s">
+        <v>378</v>
+      </c>
+      <c r="S1" t="s">
+        <v>380</v>
+      </c>
+      <c r="T1" t="s">
+        <v>381</v>
+      </c>
+      <c r="U1" t="s">
+        <v>383</v>
+      </c>
+      <c r="V1" t="s">
+        <v>384</v>
+      </c>
+      <c r="W1" t="s">
+        <v>386</v>
+      </c>
+      <c r="X1" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y1" t="s">
         <v>364</v>
       </c>
-      <c r="N1" t="s">
-        <v>369</v>
-      </c>
-      <c r="O1" t="s">
-        <v>371</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Z1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>373</v>
       </c>
-      <c r="Q1" t="s">
-        <v>375</v>
-      </c>
-      <c r="R1" t="s">
-        <v>376</v>
+      <c r="AR1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>425</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>427</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>428</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>430</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>432</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>433</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>434</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="2">
@@ -3530,19 +4192,19 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>362</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -3551,34 +4213,160 @@
         <v>364</v>
       </c>
       <c r="I2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J2" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="K2" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>370</v>
       </c>
       <c r="M2" t="s">
         <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="O2" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="P2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="R2" t="s">
+        <v>379</v>
+      </c>
+      <c r="S2" t="s">
         <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>382</v>
+      </c>
+      <c r="U2" t="s">
+        <v>357</v>
+      </c>
+      <c r="V2" t="s">
+        <v>385</v>
+      </c>
+      <c r="W2" t="s">
+        <v>385</v>
+      </c>
+      <c r="X2" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>385</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>404</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>357</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>357</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>417</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>423</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>426</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>426</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>429</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>431</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>357</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>426</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>426</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -3587,6 +4375,47 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
@@ -3596,78 +4425,78 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>377</v>
+        <v>442</v>
       </c>
       <c r="B1" t="s">
-        <v>379</v>
+        <v>443</v>
       </c>
       <c r="C1" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="D1" t="s">
-        <v>383</v>
+        <v>447</v>
       </c>
       <c r="E1" t="s">
-        <v>385</v>
+        <v>449</v>
       </c>
       <c r="F1" t="s">
-        <v>386</v>
+        <v>450</v>
       </c>
       <c r="G1" t="s">
-        <v>387</v>
+        <v>451</v>
       </c>
       <c r="H1" t="s">
-        <v>388</v>
+        <v>452</v>
       </c>
       <c r="I1" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="J1" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="K1" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="L1" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="M1" t="s">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="N1" t="s">
-        <v>395</v>
+        <v>459</v>
       </c>
       <c r="O1" t="s">
-        <v>396</v>
+        <v>460</v>
       </c>
       <c r="P1" t="s">
-        <v>397</v>
+        <v>461</v>
       </c>
       <c r="Q1" t="s">
         <v>36</v>
       </c>
       <c r="R1" t="s">
-        <v>400</v>
+        <v>464</v>
       </c>
       <c r="S1" t="s">
-        <v>453</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="C2" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="E2" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -3682,7 +4511,7 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -3700,16 +4529,16 @@
         <v>45</v>
       </c>
       <c r="P2" t="s">
-        <v>398</v>
+        <v>462</v>
       </c>
       <c r="Q2" t="s">
-        <v>399</v>
+        <v>463</v>
       </c>
       <c r="R2" t="s">
-        <v>401</v>
+        <v>465</v>
       </c>
       <c r="AJ2" t="s">
-        <v>454</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -3717,7 +4546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AH2"/>
   <sheetViews>
@@ -3727,210 +4556,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>466</v>
       </c>
       <c r="B1" t="s">
-        <v>404</v>
+        <v>468</v>
       </c>
       <c r="C1" t="s">
-        <v>405</v>
+        <v>469</v>
       </c>
       <c r="D1" t="s">
-        <v>407</v>
+        <v>471</v>
       </c>
       <c r="E1" t="s">
-        <v>408</v>
+        <v>472</v>
       </c>
       <c r="F1" t="s">
-        <v>410</v>
+        <v>474</v>
       </c>
       <c r="G1" t="s">
-        <v>411</v>
+        <v>475</v>
       </c>
       <c r="H1" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="I1" t="s">
-        <v>414</v>
+        <v>478</v>
       </c>
       <c r="J1" t="s">
-        <v>416</v>
+        <v>480</v>
       </c>
       <c r="K1" t="s">
-        <v>417</v>
+        <v>481</v>
       </c>
       <c r="L1" t="s">
-        <v>419</v>
+        <v>483</v>
       </c>
       <c r="M1" t="s">
-        <v>420</v>
+        <v>484</v>
       </c>
       <c r="N1" t="s">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="O1" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="P1" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="Q1" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="R1" t="s">
-        <v>428</v>
+        <v>492</v>
       </c>
       <c r="S1" t="s">
-        <v>429</v>
+        <v>493</v>
       </c>
       <c r="T1" t="s">
-        <v>431</v>
+        <v>495</v>
       </c>
       <c r="U1" t="s">
-        <v>432</v>
+        <v>496</v>
       </c>
       <c r="V1" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="W1" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="X1" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="Y1" t="s">
-        <v>438</v>
+        <v>502</v>
       </c>
       <c r="Z1" t="s">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="AA1" t="s">
-        <v>441</v>
+        <v>505</v>
       </c>
       <c r="AB1" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="AC1" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
       <c r="AD1" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="AE1" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
       <c r="AF1" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
       <c r="AG1" t="s">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="AH1" t="s">
-        <v>452</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>403</v>
+        <v>467</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>406</v>
+        <v>470</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>409</v>
+        <v>473</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
-        <v>412</v>
+        <v>476</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I2" t="s">
-        <v>415</v>
+        <v>479</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K2" t="s">
-        <v>418</v>
+        <v>482</v>
       </c>
       <c r="L2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M2" t="s">
-        <v>421</v>
+        <v>485</v>
       </c>
       <c r="N2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O2" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q2" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="R2" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="S2" t="s">
-        <v>430</v>
+        <v>494</v>
       </c>
       <c r="T2" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="U2" t="s">
-        <v>433</v>
+        <v>497</v>
       </c>
       <c r="V2" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="W2" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="X2" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="Y2" t="s">
-        <v>439</v>
+        <v>503</v>
       </c>
       <c r="Z2" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="AA2" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="AB2" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="AC2" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="AD2" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="AE2" t="s">
+        <v>512</v>
+      </c>
+      <c r="AF2" t="s">
         <v>448</v>
       </c>
-      <c r="AF2" t="s">
-        <v>384</v>
-      </c>
       <c r="AG2" t="s">
-        <v>451</v>
+        <v>515</v>
       </c>
       <c r="AH2" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
